--- a/final-project/xx/history.xlsx
+++ b/final-project/xx/history.xlsx
@@ -57,18 +57,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SimSiam-round Train SISNR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimSiam-round Test SISNR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimSiam-round Train CL Loss</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal-few Train SISNR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -90,6 +78,18 @@
   </si>
   <si>
     <t>SimSiam-few Train CL Loss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimSiam-round Train SISNR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimSiam-round Test SISNR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimSiam-round Train CL Loss</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4715,6 +4715,606 @@
                 <c:pt idx="199">
                   <c:v>9.5053190310796101</c:v>
                 </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.0267580668131497</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.9255603075027405</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.3214321374893192</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.1898159821828198</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.0871528307596794</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9.1902363459269196</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.1469154198964393</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.0688111305236792</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.2159436146418194</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.3245038827260291</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.1229031642278002</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.1735564390818194</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.1140832503636595</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.0979101101557394</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.2646600246429394</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.2265723466873109</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9.0704085667927998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>9.0971483310063608</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>8.9816253264745001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.1024343490600508</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9.1759523073832199</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>8.9091156641642204</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9.0944097916285198</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>8.8178688685099207</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>9.2844529231389306</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>9.0672598679860403</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9.1209786017735794</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>8.9097127676010093</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9.1088687737782799</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.0617503484090101</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8.7658087809880492</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8.9234333992004302</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>8.8763406197230008</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.1039434512456197</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8.9599658489227298</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9.0959172964095991</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9.1861162424087492</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>9.1504578034082993</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.9516142209370901</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.1000717480977293</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.1776035388310699</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.0579503059387196</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8.8671886046727497</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.8694851398468</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.1045717557271306</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8.9480913718541402</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9.0397103865941304</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8.95117205778757</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.9284239371617602</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9.0698901891708292</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.9885870774586998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8.90886108080546</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9.1903942108154304</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9.3494203408559091</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>9.0299311717351198</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9.5019042650858498</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>9.1288570483525593</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8.8972317616144796</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>9.1384723742802905</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>9.1670752207438095</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.1305096546808802</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>9.2125989437103204</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.6502955277760805</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9.0200056632359793</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.2496360937754307</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9.0925622224807707</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9.2109781185785895</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9.1384080410003605</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>9.5301004966100002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>9.1298864920933998</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>9.1318680206934602</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>9.3733528057734095</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>9.1686128536860103</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>9.1052619934082006</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>9.3651405493418292</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9.1210980494817093</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>9.2231286048889096</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9.428049659729</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9.2905360539754192</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>9.1824195782343505</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9.2388928731282505</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9.45556522210439</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.9076711734135898</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.2262912670771193</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9.7296256462732895</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9.5123708883921303</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9.3261469841003404</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9.6669175068537392</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9.4477600892384803</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9.4955879529317198</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9.1043354749679501</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9.0858966032663897</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9.6029148896535208</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>9.6031254847844405</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9.3769073406855199</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9.47849695682525</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9.2272177775700808</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.5288831710815405</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.1795871178309092</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9.4420287370681706</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9.0041824658711693</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9.1510822137196808</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9.4047305583953804</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9.1896209478378292</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9.1400770982106501</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>9.4075713237126593</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>9.2601889451344803</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>9.3118603785832708</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>9.2438992897669401</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>9.1836514870325701</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>9.1230919202168703</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>9.0671222050984692</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>9.5289932648340798</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9.2367696285247796</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>9.4067242781321205</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>9.2262172937393192</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>9.0558981180190994</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>9.3926547686258903</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>9.17560003598531</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>9.2748018741607599</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>9.2393550554911297</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>9.3887581507364892</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>9.3067326148351004</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>9.4822016557057704</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>9.3942245244979805</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>8.9269706726074194</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>9.1764275709788006</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>9.2527831157048492</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>9.4453312397003106</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>9.1055048227310103</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>9.1261720498402905</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9.3206844170888203</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>9.3048413197199498</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>8.9723757982254</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>9.1936430931091309</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>9.29359412988026</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>9.37095658779144</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>9.4700700362523396</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>9.3123439391453999</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>9.41659057935078</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>9.3324505488077794</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>9.24296868642171</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>9.23788414796193</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9.0585646867752008</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>9.1200898806254003</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>9.1693033774693795</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>9.1833358685175508</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>9.3039563735326105</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>9.2509401480356797</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>9.46117692788442</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8.5689506928125994</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>9.3615568081537806</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>9.1747538169225002</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>9.2464561939239491</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9.4228317101796399</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9.26643585364023</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>9.2184039910634308</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>9.0700662533442102</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>9.3850692907969098</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>9.4521941184997509</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>9.4980931997299098</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9.2011976480483995</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>9.24692959785461</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>9.4956847031911202</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>9.5576056321461902</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>9.4580923398335699</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>9.4624482949574702</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>9.3965377012888496</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>9.1672918717066398</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>9.7680529832839902</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>9.3534403244654296</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>9.5881544033686303</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>9.3227808157602894</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>9.3956901073455796</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>9.2276377280553099</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>9.2645783185958805</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>9.2344055334726907</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>9.1669288158416702</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>9.2305028279622299</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>9.2520442008972097</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>9.2219278017679809</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>9.2143485705057699</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>9.6606573502222695</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>9.39485646088918</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>9.5438868522644</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>9.4276465415954593</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>9.5349266131718906</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>9.2979031244913699</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>9.2405506610870294</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>9.4850850423176993</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>9.5141434828440303</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>9.2907932678858405</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>9.3400308767954492</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>9.3495410521825093</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>9.2061673641204802</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>9.3657036066055301</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>9.5645886421203592</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>9.25673269430796</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>9.1532276233037297</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>9.2814170837402301</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6003,11 +6603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-309240176"/>
-        <c:axId val="-309241264"/>
+        <c:axId val="-1583726080"/>
+        <c:axId val="-1583720640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-309240176"/>
+        <c:axId val="-1583726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,7 +6649,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309241264"/>
+        <c:crossAx val="-1583720640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6057,7 +6657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-309241264"/>
+        <c:axId val="-1583720640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6110,7 +6710,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309240176"/>
+        <c:crossAx val="-1583726080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6751,16 +7351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>585415</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218661</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47046</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212034</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7048,7 +7648,7 @@
   <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q1" activeCellId="5" sqref="B1:B1048576 E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 Q1:Q1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7082,31 +7682,31 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -18337,6 +18937,15 @@
       <c r="I202">
         <v>-0.37023564614355498</v>
       </c>
+      <c r="J202">
+        <v>10.067677468061399</v>
+      </c>
+      <c r="K202">
+        <v>9.0267580668131497</v>
+      </c>
+      <c r="L202">
+        <v>-0.63335814792662803</v>
+      </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203">
@@ -18366,6 +18975,15 @@
       <c r="I203">
         <v>-0.37536025885492502</v>
       </c>
+      <c r="J203">
+        <v>10.82830914855</v>
+      </c>
+      <c r="K203">
+        <v>8.9255603075027405</v>
+      </c>
+      <c r="L203">
+        <v>-0.82231825962662697</v>
+      </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204">
@@ -18395,6 +19013,15 @@
       <c r="I204">
         <v>-0.37255269661545698</v>
       </c>
+      <c r="J204">
+        <v>10.882772505283301</v>
+      </c>
+      <c r="K204">
+        <v>9.3214321374893192</v>
+      </c>
+      <c r="L204">
+        <v>-0.88037184253334999</v>
+      </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205">
@@ -18424,6 +19051,15 @@
       <c r="I205">
         <v>-0.36130908690392899</v>
       </c>
+      <c r="J205">
+        <v>10.9798988997936</v>
+      </c>
+      <c r="K205">
+        <v>9.1898159821828198</v>
+      </c>
+      <c r="L205">
+        <v>-0.90806241147220101</v>
+      </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206">
@@ -18453,6 +19089,15 @@
       <c r="I206">
         <v>-0.35990630090236603</v>
       </c>
+      <c r="J206">
+        <v>11.047238349914499</v>
+      </c>
+      <c r="K206">
+        <v>9.0871528307596794</v>
+      </c>
+      <c r="L206">
+        <v>-0.92459785751998402</v>
+      </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -18482,6 +19127,15 @@
       <c r="I207">
         <v>-0.35891946125775498</v>
       </c>
+      <c r="J207">
+        <v>10.978154659271199</v>
+      </c>
+      <c r="K207">
+        <v>9.1902363459269196</v>
+      </c>
+      <c r="L207">
+        <v>-0.93337976187467497</v>
+      </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208">
@@ -18511,8 +19165,17 @@
       <c r="I208">
         <v>-0.37083675060421201</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208">
+        <v>10.965060055255799</v>
+      </c>
+      <c r="K208">
+        <v>9.1469154198964393</v>
+      </c>
+      <c r="L208">
+        <v>-0.941388024017214</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>8.0869999999999997</v>
       </c>
@@ -18540,8 +19203,17 @@
       <c r="I209">
         <v>-0.36792222596704899</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <v>10.9044688045978</v>
+      </c>
+      <c r="K209">
+        <v>9.0688111305236792</v>
+      </c>
+      <c r="L209">
+        <v>-0.946098888292908</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7.9790000000000001</v>
       </c>
@@ -18569,8 +19241,17 @@
       <c r="I210">
         <v>-0.37245874200016199</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <v>10.956215113401401</v>
+      </c>
+      <c r="K210">
+        <v>9.2159436146418194</v>
+      </c>
+      <c r="L210">
+        <v>-0.94951471686363198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>8.0579999999999998</v>
       </c>
@@ -18598,8 +19279,17 @@
       <c r="I211">
         <v>-0.36832643300294798</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <v>10.9002218842506</v>
+      </c>
+      <c r="K211">
+        <v>9.3245038827260291</v>
+      </c>
+      <c r="L211">
+        <v>-0.95176802761852697</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>8.0069999999999997</v>
       </c>
@@ -18627,8 +19317,17 @@
       <c r="I212">
         <v>-0.37298079300671799</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <v>10.965556383132901</v>
+      </c>
+      <c r="K212">
+        <v>9.1229031642278002</v>
+      </c>
+      <c r="L212">
+        <v>-0.954285563901066</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>7.9779999999999998</v>
       </c>
@@ -18656,8 +19355,17 @@
       <c r="I213">
         <v>-0.364405337721109</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <v>10.957951426506</v>
+      </c>
+      <c r="K213">
+        <v>9.1735564390818194</v>
+      </c>
+      <c r="L213">
+        <v>-0.955097300931811</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>7.9020000000000001</v>
       </c>
@@ -18685,8 +19393,17 @@
       <c r="I214">
         <v>-0.37121752277016601</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214">
+        <v>10.935504883527701</v>
+      </c>
+      <c r="K214">
+        <v>9.1140832503636595</v>
+      </c>
+      <c r="L214">
+        <v>-0.95601750910282102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>8.0519999999999996</v>
       </c>
@@ -18714,8 +19431,17 @@
       <c r="I215">
         <v>-0.37373461760580501</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <v>10.908668607473301</v>
+      </c>
+      <c r="K215">
+        <v>9.0979101101557394</v>
+      </c>
+      <c r="L215">
+        <v>-0.95552211441099599</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>8.0510000000000002</v>
       </c>
@@ -18743,8 +19469,17 @@
       <c r="I216">
         <v>-0.36949133407324503</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <v>10.8672267794609</v>
+      </c>
+      <c r="K216">
+        <v>9.2646600246429394</v>
+      </c>
+      <c r="L216">
+        <v>-0.95587993413209904</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>8.1170000000000009</v>
       </c>
@@ -18772,8 +19507,17 @@
       <c r="I217">
         <v>-0.37051523663103503</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <v>10.985982120037001</v>
+      </c>
+      <c r="K217">
+        <v>9.2265723466873109</v>
+      </c>
+      <c r="L217">
+        <v>-0.95695929042994898</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>8.0500000000000007</v>
       </c>
@@ -18801,8 +19545,17 @@
       <c r="I218">
         <v>-0.37057993467897099</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <v>10.960071831941599</v>
+      </c>
+      <c r="K218">
+        <v>9.0704085667927998</v>
+      </c>
+      <c r="L218">
+        <v>-0.95827294886112202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>8.1300000000000008</v>
       </c>
@@ -18830,8 +19583,17 @@
       <c r="I219">
         <v>-0.35522228665649802</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <v>10.970312476158099</v>
+      </c>
+      <c r="K219">
+        <v>9.0971483310063608</v>
+      </c>
+      <c r="L219">
+        <v>-0.958968760445714</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8.0749999999999993</v>
       </c>
@@ -18859,8 +19621,17 @@
       <c r="I220">
         <v>-0.362842320464551</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <v>10.923892945051101</v>
+      </c>
+      <c r="K220">
+        <v>8.9816253264745001</v>
+      </c>
+      <c r="L220">
+        <v>-0.95854542031884105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>8.1050000000000004</v>
       </c>
@@ -18888,8 +19659,17 @@
       <c r="I221">
         <v>-0.37070366088300899</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <v>10.839271217584599</v>
+      </c>
+      <c r="K221">
+        <v>9.1024343490600508</v>
+      </c>
+      <c r="L221">
+        <v>-0.95867888629436404</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>8.0510000000000002</v>
       </c>
@@ -18917,8 +19697,17 @@
       <c r="I222">
         <v>-0.35807989723980399</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <v>10.959670871496201</v>
+      </c>
+      <c r="K222">
+        <v>9.1759523073832199</v>
+      </c>
+      <c r="L222">
+        <v>-0.95921388454735201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>8.1959999999999997</v>
       </c>
@@ -18946,8 +19735,17 @@
       <c r="I223">
         <v>-0.36058304551988801</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <v>10.782929807901301</v>
+      </c>
+      <c r="K223">
+        <v>8.9091156641642204</v>
+      </c>
+      <c r="L223">
+        <v>-0.95923269167542402</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>8.1329999999999991</v>
       </c>
@@ -18975,8 +19773,17 @@
       <c r="I224">
         <v>-0.36021220870316001</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <v>11.015119522809901</v>
+      </c>
+      <c r="K224">
+        <v>9.0944097916285198</v>
+      </c>
+      <c r="L224">
+        <v>-0.95923300646245402</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8.1210000000000004</v>
       </c>
@@ -19004,8 +19811,17 @@
       <c r="I225">
         <v>-0.36947301682084799</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <v>10.9578244686126</v>
+      </c>
+      <c r="K225">
+        <v>8.8178688685099207</v>
+      </c>
+      <c r="L225">
+        <v>-0.96023660711944103</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>8.2520000000000007</v>
       </c>
@@ -19033,8 +19849,17 @@
       <c r="I226">
         <v>-0.360862432047724</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <v>10.9317314922809</v>
+      </c>
+      <c r="K226">
+        <v>9.2844529231389306</v>
+      </c>
+      <c r="L226">
+        <v>-0.96016943641006902</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>8.1349999999999998</v>
       </c>
@@ -19062,8 +19887,17 @@
       <c r="I227">
         <v>-0.35977266728877999</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227">
+        <v>10.951239258050901</v>
+      </c>
+      <c r="K227">
+        <v>9.0672598679860403</v>
+      </c>
+      <c r="L227">
+        <v>-0.96042350120842401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>8.2439999999999998</v>
       </c>
@@ -19091,8 +19925,17 @@
       <c r="I228">
         <v>-0.35801583435386403</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <v>10.921702563762601</v>
+      </c>
+      <c r="K228">
+        <v>9.1209786017735794</v>
+      </c>
+      <c r="L228">
+        <v>-0.960906412452459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>8.1609999999999996</v>
       </c>
@@ -19120,8 +19963,17 @@
       <c r="I229">
         <v>-0.358891561627388</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <v>11.0224456787109</v>
+      </c>
+      <c r="K229">
+        <v>8.9097127676010093</v>
+      </c>
+      <c r="L229">
+        <v>-0.96121131256222703</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8.2829999999999995</v>
       </c>
@@ -19149,8 +20001,17 @@
       <c r="I230">
         <v>-0.36046591401100098</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <v>10.9566620886325</v>
+      </c>
+      <c r="K230">
+        <v>9.1088687737782799</v>
+      </c>
+      <c r="L230">
+        <v>-0.96095525287091699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8.2509999999999994</v>
       </c>
@@ -19178,8 +20039,17 @@
       <c r="I231">
         <v>-0.35185643099248398</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <v>11.012514591217</v>
+      </c>
+      <c r="K231">
+        <v>9.0617503484090101</v>
+      </c>
+      <c r="L231">
+        <v>-0.96163510344922498</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8.2129999999999992</v>
       </c>
@@ -19207,8 +20077,17 @@
       <c r="I232">
         <v>-0.35722548328339998</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <v>10.9638344943523</v>
+      </c>
+      <c r="K232">
+        <v>8.7658087809880492</v>
+      </c>
+      <c r="L232">
+        <v>-0.96163472533226002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8.2219999999999995</v>
       </c>
@@ -19236,8 +20115,17 @@
       <c r="I233">
         <v>-0.35599692258983801</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <v>10.978278160095201</v>
+      </c>
+      <c r="K233">
+        <v>8.9234333992004302</v>
+      </c>
+      <c r="L233">
+        <v>-0.96179639361798697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8.2479999999999993</v>
       </c>
@@ -19265,8 +20153,17 @@
       <c r="I234">
         <v>-0.35948343854397502</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <v>11.033936172723701</v>
+      </c>
+      <c r="K234">
+        <v>8.8763406197230008</v>
+      </c>
+      <c r="L234">
+        <v>-0.96147819235920895</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8.3179999999999996</v>
       </c>
@@ -19294,8 +20191,17 @@
       <c r="I235">
         <v>-0.34752232395112498</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <v>10.974752157926501</v>
+      </c>
+      <c r="K235">
+        <v>9.1039434512456197</v>
+      </c>
+      <c r="L235">
+        <v>-0.96153947710990895</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8.3450000000000006</v>
       </c>
@@ -19323,8 +20229,17 @@
       <c r="I236">
         <v>-0.35862316098064101</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <v>11.1724264323711</v>
+      </c>
+      <c r="K236">
+        <v>8.9599658489227298</v>
+      </c>
+      <c r="L236">
+        <v>-0.96206510439515103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8.4600000000000009</v>
       </c>
@@ -19352,8 +20267,17 @@
       <c r="I237">
         <v>-0.354101159609854</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <v>11.0079793334007</v>
+      </c>
+      <c r="K237">
+        <v>9.0959172964095991</v>
+      </c>
+      <c r="L237">
+        <v>-0.96229618601500899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>8.3610000000000007</v>
       </c>
@@ -19381,8 +20305,17 @@
       <c r="I238">
         <v>-0.35670400690287302</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <v>10.970346629619501</v>
+      </c>
+      <c r="K238">
+        <v>9.1861162424087492</v>
+      </c>
+      <c r="L238">
+        <v>-0.96245647221803599</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>8.3559999999999999</v>
       </c>
@@ -19410,8 +20343,17 @@
       <c r="I239">
         <v>-0.36263782344758499</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <v>10.997029334306699</v>
+      </c>
+      <c r="K239">
+        <v>9.1504578034082993</v>
+      </c>
+      <c r="L239">
+        <v>-0.96162867173552502</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8.3469999999999995</v>
       </c>
@@ -19439,8 +20381,17 @@
       <c r="I240">
         <v>-0.349513940513134</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <v>11.101764887571299</v>
+      </c>
+      <c r="K240">
+        <v>8.9516142209370901</v>
+      </c>
+      <c r="L240">
+        <v>-0.96251665987074297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8.3490000000000002</v>
       </c>
@@ -19468,8 +20419,17 @@
       <c r="I241">
         <v>-0.34814394451677799</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <v>11.007090359926201</v>
+      </c>
+      <c r="K241">
+        <v>9.1000717480977293</v>
+      </c>
+      <c r="L241">
+        <v>-0.96243956312537104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>8.3239999999999998</v>
       </c>
@@ -19497,8 +20457,17 @@
       <c r="I242">
         <v>-0.35143503453582497</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <v>11.0814144909381</v>
+      </c>
+      <c r="K242">
+        <v>9.1776035388310699</v>
+      </c>
+      <c r="L242">
+        <v>-0.96274481154978198</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8.3629999999999995</v>
       </c>
@@ -19526,8 +20495,17 @@
       <c r="I243">
         <v>-0.35371970292180699</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <v>11.0382031202316</v>
+      </c>
+      <c r="K243">
+        <v>9.0579503059387196</v>
+      </c>
+      <c r="L243">
+        <v>-0.96269625425338701</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>8.4009999999999998</v>
       </c>
@@ -19555,8 +20533,17 @@
       <c r="I244">
         <v>-0.35449505597352898</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <v>11.116686195135101</v>
+      </c>
+      <c r="K244">
+        <v>8.8671886046727497</v>
+      </c>
+      <c r="L244">
+        <v>-0.96299639530479897</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>8.3740000000000006</v>
       </c>
@@ -19584,8 +20571,17 @@
       <c r="I245">
         <v>-0.353166230954229</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <v>11.029599636793099</v>
+      </c>
+      <c r="K245">
+        <v>8.8694851398468</v>
+      </c>
+      <c r="L245">
+        <v>-0.96286397986114003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8.4109999999999996</v>
       </c>
@@ -19613,8 +20609,17 @@
       <c r="I246">
         <v>-0.35682020150124999</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <v>11.018088519573199</v>
+      </c>
+      <c r="K246">
+        <v>9.1045717557271306</v>
+      </c>
+      <c r="L246">
+        <v>-0.96261548623442605</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>8.3879999999999999</v>
       </c>
@@ -19642,8 +20647,17 @@
       <c r="I247">
         <v>-0.352205570787191</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <v>11.0921640098094</v>
+      </c>
+      <c r="K247">
+        <v>8.9480913718541402</v>
+      </c>
+      <c r="L247">
+        <v>-0.96263860724866301</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>8.3919999999999995</v>
       </c>
@@ -19671,8 +20685,17 @@
       <c r="I248">
         <v>-0.35324363876134102</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <v>11.156287640333099</v>
+      </c>
+      <c r="K248">
+        <v>9.0397103865941304</v>
+      </c>
+      <c r="L248">
+        <v>-0.96271469257771902</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8.4329999999999998</v>
       </c>
@@ -19700,8 +20723,17 @@
       <c r="I249">
         <v>-0.348093627020716</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <v>11.117565721273399</v>
+      </c>
+      <c r="K249">
+        <v>8.95117205778757</v>
+      </c>
+      <c r="L249">
+        <v>-0.96335546113550596</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8.4920000000000009</v>
       </c>
@@ -19729,8 +20761,17 @@
       <c r="I250">
         <v>-0.35141276102513003</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <v>11.1663691699504</v>
+      </c>
+      <c r="K250">
+        <v>8.9284239371617602</v>
+      </c>
+      <c r="L250">
+        <v>-0.96360735781490803</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>8.5</v>
       </c>
@@ -19758,8 +20799,17 @@
       <c r="I251">
         <v>-0.36104033514857198</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <v>11.093407601118001</v>
+      </c>
+      <c r="K251">
+        <v>9.0698901891708292</v>
+      </c>
+      <c r="L251">
+        <v>-0.96365168131887902</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8.5269999999999992</v>
       </c>
@@ -19778,8 +20828,17 @@
       <c r="F252">
         <v>-0.50809190049767405</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <v>3.4421468768268801</v>
+      </c>
+      <c r="K252">
+        <v>6.9885870774586998</v>
+      </c>
+      <c r="L252">
+        <v>-0.54529402870684796</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8.4979999999999993</v>
       </c>
@@ -19798,8 +20857,17 @@
       <c r="F253">
         <v>-0.51020019967108898</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <v>8.8651455193757993</v>
+      </c>
+      <c r="K253">
+        <v>8.90886108080546</v>
+      </c>
+      <c r="L253">
+        <v>-0.38198087085038401</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8.5809999999999995</v>
       </c>
@@ -19818,8 +20886,17 @@
       <c r="F254">
         <v>-0.50271886307746105</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <v>10.4115943312644</v>
+      </c>
+      <c r="K254">
+        <v>9.1903942108154304</v>
+      </c>
+      <c r="L254">
+        <v>-0.34936929773539299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>8.5500000000000007</v>
       </c>
@@ -19838,8 +20915,17 @@
       <c r="F255">
         <v>-0.50413894001394499</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <v>10.724717319011599</v>
+      </c>
+      <c r="K255">
+        <v>9.3494203408559091</v>
+      </c>
+      <c r="L255">
+        <v>-0.33891581930220099</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>8.5289999999999999</v>
       </c>
@@ -19858,8 +20944,17 @@
       <c r="F256">
         <v>-0.50907289888709695</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <v>10.7466214001178</v>
+      </c>
+      <c r="K256">
+        <v>9.0299311717351198</v>
+      </c>
+      <c r="L256">
+        <v>-0.33310119435191099</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>8.5210000000000008</v>
       </c>
@@ -19878,8 +20973,17 @@
       <c r="F257">
         <v>-0.507373119704425</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <v>10.896989315748201</v>
+      </c>
+      <c r="K257">
+        <v>9.5019042650858498</v>
+      </c>
+      <c r="L257">
+        <v>-0.33585280366241899</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>8.5549999999999997</v>
       </c>
@@ -19898,8 +21002,17 @@
       <c r="F258">
         <v>-0.505074295215308</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <v>10.954784244298899</v>
+      </c>
+      <c r="K258">
+        <v>9.1288570483525593</v>
+      </c>
+      <c r="L258">
+        <v>-0.34439094271510801</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>8.5579999999999998</v>
       </c>
@@ -19918,8 +21031,17 @@
       <c r="F259">
         <v>-0.51226583402603798</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>10.829573899507499</v>
+      </c>
+      <c r="K259">
+        <v>8.8972317616144796</v>
+      </c>
+      <c r="L259">
+        <v>-0.342721990309655</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>8.5670000000000002</v>
       </c>
@@ -19938,8 +21060,17 @@
       <c r="F260">
         <v>-0.51833605114370496</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <v>10.9778736531734</v>
+      </c>
+      <c r="K260">
+        <v>9.1384723742802905</v>
+      </c>
+      <c r="L260">
+        <v>-0.34508594591170499</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8.5310000000000006</v>
       </c>
@@ -19958,8 +21089,17 @@
       <c r="F261">
         <v>-0.51685066986828998</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <v>10.9509530067443</v>
+      </c>
+      <c r="K261">
+        <v>9.1670752207438095</v>
+      </c>
+      <c r="L261">
+        <v>-0.35023716278374101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>8.577</v>
       </c>
@@ -19978,8 +21118,17 @@
       <c r="F262">
         <v>-0.51847222167998497</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <v>10.952634841203601</v>
+      </c>
+      <c r="K262">
+        <v>9.1305096546808802</v>
+      </c>
+      <c r="L262">
+        <v>-0.355611206963658</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>8.5969999999999995</v>
       </c>
@@ -19998,8 +21147,17 @@
       <c r="F263">
         <v>-0.51980378758162205</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <v>11.016915291547701</v>
+      </c>
+      <c r="K263">
+        <v>9.2125989437103204</v>
+      </c>
+      <c r="L263">
+        <v>-0.36005317512899598</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>8.5730000000000004</v>
       </c>
@@ -20018,8 +21176,17 @@
       <c r="F264">
         <v>-0.51650252938270502</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <v>11.0539632737636</v>
+      </c>
+      <c r="K264">
+        <v>8.6502955277760805</v>
+      </c>
+      <c r="L264">
+        <v>-0.361382495611906</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>8.5630000000000006</v>
       </c>
@@ -20038,8 +21205,17 @@
       <c r="F265">
         <v>-0.51943145226687104</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <v>11.0938517451286</v>
+      </c>
+      <c r="K265">
+        <v>9.0200056632359793</v>
+      </c>
+      <c r="L265">
+        <v>-0.36716308910399598</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8.6470000000000002</v>
       </c>
@@ -20058,8 +21234,17 @@
       <c r="F266">
         <v>-0.522648223675787</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <v>11.079833716154001</v>
+      </c>
+      <c r="K266">
+        <v>9.2496360937754307</v>
+      </c>
+      <c r="L266">
+        <v>-0.368423364125192</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8.6240000000000006</v>
       </c>
@@ -20078,8 +21263,17 @@
       <c r="F267">
         <v>-0.52512553893029601</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <v>11.123721718788101</v>
+      </c>
+      <c r="K267">
+        <v>9.0925622224807707</v>
+      </c>
+      <c r="L267">
+        <v>-0.37453749030828398</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>8.6639999999999997</v>
       </c>
@@ -20098,8 +21292,17 @@
       <c r="F268">
         <v>-0.52286941278725796</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <v>11.1724187433719</v>
+      </c>
+      <c r="K268">
+        <v>9.2109781185785895</v>
+      </c>
+      <c r="L268">
+        <v>-0.367761057801544</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8.6920000000000002</v>
       </c>
@@ -20118,8 +21321,17 @@
       <c r="F269">
         <v>-0.52276964299380702</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <v>11.1088756620883</v>
+      </c>
+      <c r="K269">
+        <v>9.1384080410003605</v>
+      </c>
+      <c r="L269">
+        <v>-0.37322049215435898</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>8.6020000000000003</v>
       </c>
@@ -20138,8 +21350,17 @@
       <c r="F270">
         <v>-0.52160550933331196</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J270">
+        <v>11.159803926944701</v>
+      </c>
+      <c r="K270">
+        <v>9.5301004966100002</v>
+      </c>
+      <c r="L270">
+        <v>-0.37078341469168602</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>8.6890000000000001</v>
       </c>
@@ -20158,8 +21379,17 @@
       <c r="F271">
         <v>-0.52164590638130903</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <v>11.346716672182</v>
+      </c>
+      <c r="K271">
+        <v>9.1298864920933998</v>
+      </c>
+      <c r="L271">
+        <v>-0.373003142885863</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8.6329999999999991</v>
       </c>
@@ -20178,8 +21408,17 @@
       <c r="F272">
         <v>-0.52464577741920904</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J272">
+        <v>11.2887124717235</v>
+      </c>
+      <c r="K272">
+        <v>9.1318680206934602</v>
+      </c>
+      <c r="L272">
+        <v>-0.37108458857983301</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8.7550000000000008</v>
       </c>
@@ -20198,8 +21437,17 @@
       <c r="F273">
         <v>-0.52726417034864403</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J273">
+        <v>11.332946866750699</v>
+      </c>
+      <c r="K273">
+        <v>9.3733528057734095</v>
+      </c>
+      <c r="L273">
+        <v>-0.36880156490951699</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8.6850000000000005</v>
       </c>
@@ -20218,8 +21466,17 @@
       <c r="F274">
         <v>-0.52586106956005096</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <v>11.344897866248999</v>
+      </c>
+      <c r="K274">
+        <v>9.1686128536860103</v>
+      </c>
+      <c r="L274">
+        <v>-0.374102972447872</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8.7690000000000001</v>
       </c>
@@ -20238,8 +21495,17 @@
       <c r="F275">
         <v>-0.52815952152013701</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <v>11.237173318862901</v>
+      </c>
+      <c r="K275">
+        <v>9.1052619934082006</v>
+      </c>
+      <c r="L275">
+        <v>-0.38202418666332899</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8.8130000000000006</v>
       </c>
@@ -20258,8 +21524,17 @@
       <c r="F276">
         <v>-0.52818791940808296</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <v>11.2944922745227</v>
+      </c>
+      <c r="K276">
+        <v>9.3651405493418292</v>
+      </c>
+      <c r="L276">
+        <v>-0.38124275952577502</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8.6359999999999992</v>
       </c>
@@ -20278,8 +21553,17 @@
       <c r="F277">
         <v>-0.53278050757944495</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <v>11.201399952173199</v>
+      </c>
+      <c r="K277">
+        <v>9.1210980494817093</v>
+      </c>
+      <c r="L277">
+        <v>-0.37481837905943299</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8.8279999999999994</v>
       </c>
@@ -20298,8 +21582,17 @@
       <c r="F278">
         <v>-0.53354462422430504</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <v>11.270830661058399</v>
+      </c>
+      <c r="K278">
+        <v>9.2231286048889096</v>
+      </c>
+      <c r="L278">
+        <v>-0.367959487251937</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8.766</v>
       </c>
@@ -20318,8 +21611,17 @@
       <c r="F279">
         <v>-0.52796339988708496</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <v>11.3854396045207</v>
+      </c>
+      <c r="K279">
+        <v>9.428049659729</v>
+      </c>
+      <c r="L279">
+        <v>-0.37561835069209298</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8.7520000000000007</v>
       </c>
@@ -20338,8 +21640,17 @@
       <c r="F280">
         <v>-0.53295624069869496</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <v>11.3012323379516</v>
+      </c>
+      <c r="K280">
+        <v>9.2905360539754192</v>
+      </c>
+      <c r="L280">
+        <v>-0.370833748020231</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8.8140000000000001</v>
       </c>
@@ -20358,8 +21669,17 @@
       <c r="F281">
         <v>-0.53340765088796604</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <v>11.417647451162299</v>
+      </c>
+      <c r="K281">
+        <v>9.1824195782343505</v>
+      </c>
+      <c r="L281">
+        <v>-0.375507644377648</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>8.7759999999999998</v>
       </c>
@@ -20378,8 +21698,17 @@
       <c r="F282">
         <v>-0.534216448664665</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J282">
+        <v>11.4188556373119</v>
+      </c>
+      <c r="K282">
+        <v>9.2388928731282505</v>
+      </c>
+      <c r="L282">
+        <v>-0.38140332791954201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>8.6829999999999998</v>
       </c>
@@ -20398,8 +21727,17 @@
       <c r="F283">
         <v>-0.53651714511215598</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J283">
+        <v>11.407509714365</v>
+      </c>
+      <c r="K283">
+        <v>9.45556522210439</v>
+      </c>
+      <c r="L283">
+        <v>-0.37214495241641998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>8.8759999999999994</v>
       </c>
@@ -20418,8 +21756,17 @@
       <c r="F284">
         <v>-0.53581934049725499</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J284">
+        <v>11.287065058946601</v>
+      </c>
+      <c r="K284">
+        <v>8.9076711734135898</v>
+      </c>
+      <c r="L284">
+        <v>-0.36413903720676899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>8.7560000000000002</v>
       </c>
@@ -20438,8 +21785,17 @@
       <c r="F285">
         <v>-0.53638642095029299</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J285">
+        <v>11.4348887503147</v>
+      </c>
+      <c r="K285">
+        <v>9.2262912670771193</v>
+      </c>
+      <c r="L285">
+        <v>-0.36774384882300998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>8.8740000000000006</v>
       </c>
@@ -20458,8 +21814,17 @@
       <c r="F286">
         <v>-0.537658501416444</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J286">
+        <v>11.4639904797077</v>
+      </c>
+      <c r="K286">
+        <v>9.7296256462732895</v>
+      </c>
+      <c r="L286">
+        <v>-0.36686247866600702</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>8.9009999999999998</v>
       </c>
@@ -20478,8 +21843,17 @@
       <c r="F287">
         <v>-0.53567742370069005</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J287">
+        <v>11.4191104471683</v>
+      </c>
+      <c r="K287">
+        <v>9.5123708883921303</v>
+      </c>
+      <c r="L287">
+        <v>-0.36127439606934703</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>8.83</v>
       </c>
@@ -20498,8 +21872,17 @@
       <c r="F288">
         <v>-0.53355170600116197</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J288">
+        <v>11.3774624764919</v>
+      </c>
+      <c r="K288">
+        <v>9.3261469841003404</v>
+      </c>
+      <c r="L288">
+        <v>-0.36325488518923499</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>8.8460000000000001</v>
       </c>
@@ -20518,8 +21901,17 @@
       <c r="F289">
         <v>-0.53170870523899705</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <v>11.4295391738414</v>
+      </c>
+      <c r="K289">
+        <v>9.6669175068537392</v>
+      </c>
+      <c r="L289">
+        <v>-0.37066799122840099</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>8.8480000000000008</v>
       </c>
@@ -20538,8 +21930,17 @@
       <c r="F290">
         <v>-0.53769390471279599</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J290">
+        <v>11.5870350003242</v>
+      </c>
+      <c r="K290">
+        <v>9.4477600892384803</v>
+      </c>
+      <c r="L290">
+        <v>-0.373412445187568</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>8.9239999999999995</v>
       </c>
@@ -20558,8 +21959,17 @@
       <c r="F291">
         <v>-0.539608113467693</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J291">
+        <v>11.544965624809199</v>
+      </c>
+      <c r="K291">
+        <v>9.4955879529317198</v>
+      </c>
+      <c r="L291">
+        <v>-0.36908529791980899</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>8.9890000000000008</v>
       </c>
@@ -20578,8 +21988,17 @@
       <c r="F292">
         <v>-0.54419538378715504</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J292">
+        <v>11.396283030509901</v>
+      </c>
+      <c r="K292">
+        <v>9.1043354749679501</v>
+      </c>
+      <c r="L292">
+        <v>-0.363784350454807</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>8.8740000000000006</v>
       </c>
@@ -20598,8 +22017,17 @@
       <c r="F293">
         <v>-0.53930441103875604</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J293">
+        <v>11.512962162494601</v>
+      </c>
+      <c r="K293">
+        <v>9.0858966032663897</v>
+      </c>
+      <c r="L293">
+        <v>-0.36557685583829802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>8.8480000000000008</v>
       </c>
@@ -20618,8 +22046,17 @@
       <c r="F294">
         <v>-0.53957911208271903</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J294">
+        <v>11.5012220740318</v>
+      </c>
+      <c r="K294">
+        <v>9.6029148896535208</v>
+      </c>
+      <c r="L294">
+        <v>-0.36072818469256102</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>8.8780000000000001</v>
       </c>
@@ -20638,8 +22075,17 @@
       <c r="F295">
         <v>-0.54024432413279999</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J295">
+        <v>11.581633865833201</v>
+      </c>
+      <c r="K295">
+        <v>9.6031254847844405</v>
+      </c>
+      <c r="L295">
+        <v>-0.36629769392311501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>8.8330000000000002</v>
       </c>
@@ -20658,8 +22104,17 @@
       <c r="F296">
         <v>-0.54080553911626295</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J296">
+        <v>11.509424239396999</v>
+      </c>
+      <c r="K296">
+        <v>9.3769073406855199</v>
+      </c>
+      <c r="L296">
+        <v>-0.36026782635599303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>8.9190000000000005</v>
       </c>
@@ -20678,8 +22133,17 @@
       <c r="F297">
         <v>-0.540414378046989</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J297">
+        <v>11.579252064227999</v>
+      </c>
+      <c r="K297">
+        <v>9.47849695682525</v>
+      </c>
+      <c r="L297">
+        <v>-0.36390932556241701</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>8.8580000000000005</v>
       </c>
@@ -20698,8 +22162,17 @@
       <c r="F298">
         <v>-0.53812633268535104</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J298">
+        <v>11.702507674694001</v>
+      </c>
+      <c r="K298">
+        <v>9.2272177775700808</v>
+      </c>
+      <c r="L298">
+        <v>-0.35497511457651798</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>8.8179999999999996</v>
       </c>
@@ -20718,8 +22191,17 @@
       <c r="F299">
         <v>-0.54087708704173498</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J299">
+        <v>11.591852992772999</v>
+      </c>
+      <c r="K299">
+        <v>9.5288831710815405</v>
+      </c>
+      <c r="L299">
+        <v>-0.35659162886440698</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>9.02</v>
       </c>
@@ -20738,8 +22220,17 @@
       <c r="F300">
         <v>-0.54567104764282703</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J300">
+        <v>11.7284361124038</v>
+      </c>
+      <c r="K300">
+        <v>9.1795871178309092</v>
+      </c>
+      <c r="L300">
+        <v>-0.36105402093380601</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>8.9659999999999993</v>
       </c>
@@ -20758,8 +22249,17 @@
       <c r="F301">
         <v>-0.54674857296049595</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J301">
+        <v>11.687146693468</v>
+      </c>
+      <c r="K301">
+        <v>9.4420287370681706</v>
+      </c>
+      <c r="L301">
+        <v>-0.35973908752202899</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>8.9149999999999991</v>
       </c>
@@ -20778,8 +22278,17 @@
       <c r="F302">
         <v>-0.54442788287997201</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J302">
+        <v>11.0258423388004</v>
+      </c>
+      <c r="K302">
+        <v>9.0041824658711693</v>
+      </c>
+      <c r="L302">
+        <v>-0.66009071562439203</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>9.0419999999999998</v>
       </c>
@@ -20798,8 +22307,17 @@
       <c r="F303">
         <v>-0.54419055394828297</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J303">
+        <v>11.7445907890796</v>
+      </c>
+      <c r="K303">
+        <v>9.1510822137196808</v>
+      </c>
+      <c r="L303">
+        <v>-0.86384901776909795</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>8.9740000000000002</v>
       </c>
@@ -20818,8 +22336,17 @@
       <c r="F304">
         <v>-0.54939275421202105</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J304">
+        <v>11.9110274910926</v>
+      </c>
+      <c r="K304">
+        <v>9.4047305583953804</v>
+      </c>
+      <c r="L304">
+        <v>-0.90568515285849505</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>9.0090000000000003</v>
       </c>
@@ -20838,8 +22365,17 @@
       <c r="F305">
         <v>-0.54921198822557904</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J305">
+        <v>12.051621943712201</v>
+      </c>
+      <c r="K305">
+        <v>9.1896209478378292</v>
+      </c>
+      <c r="L305">
+        <v>-0.92551816441118695</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>8.9469999999999992</v>
       </c>
@@ -20858,8 +22394,17 @@
       <c r="F306">
         <v>-0.54547479003667798</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J306">
+        <v>11.9535025060176</v>
+      </c>
+      <c r="K306">
+        <v>9.1400770982106501</v>
+      </c>
+      <c r="L306">
+        <v>-0.93628784641623497</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>9.0500000000000007</v>
       </c>
@@ -20878,8 +22423,17 @@
       <c r="F307">
         <v>-0.54639622941613197</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J307">
+        <v>12.041081070899899</v>
+      </c>
+      <c r="K307">
+        <v>9.4075713237126593</v>
+      </c>
+      <c r="L307">
+        <v>-0.94281349703669504</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>8.9930000000000003</v>
       </c>
@@ -20898,8 +22452,17 @@
       <c r="F308">
         <v>-0.54859128594398499</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J308">
+        <v>11.9719198942184</v>
+      </c>
+      <c r="K308">
+        <v>9.2601889451344803</v>
+      </c>
+      <c r="L308">
+        <v>-0.94828233867883605</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>9.0519999999999996</v>
       </c>
@@ -20918,8 +22481,17 @@
       <c r="F309">
         <v>-0.54760684445500296</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J309">
+        <v>11.8804033398628</v>
+      </c>
+      <c r="K309">
+        <v>9.3118603785832708</v>
+      </c>
+      <c r="L309">
+        <v>-0.95037500187754598</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>8.9619999999999997</v>
       </c>
@@ -20938,8 +22510,17 @@
       <c r="F310">
         <v>-0.54960191808640901</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J310">
+        <v>11.931349515914899</v>
+      </c>
+      <c r="K310">
+        <v>9.2438992897669401</v>
+      </c>
+      <c r="L310">
+        <v>-0.95308774895965997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>9.0459999999999994</v>
       </c>
@@ -20958,8 +22539,17 @@
       <c r="F311">
         <v>-0.54968286491930396</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J311">
+        <v>11.965435206890101</v>
+      </c>
+      <c r="K311">
+        <v>9.1836514870325701</v>
+      </c>
+      <c r="L311">
+        <v>-0.95440096594393198</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>9.0990000000000002</v>
       </c>
@@ -20978,8 +22568,17 @@
       <c r="F312">
         <v>-0.55365491099655595</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J312">
+        <v>11.8979037702083</v>
+      </c>
+      <c r="K312">
+        <v>9.1230919202168703</v>
+      </c>
+      <c r="L312">
+        <v>-0.955217834562063</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>9.1479999999999997</v>
       </c>
@@ -20998,8 +22597,17 @@
       <c r="F313">
         <v>-0.556767212226986</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J313">
+        <v>11.4451223313808</v>
+      </c>
+      <c r="K313">
+        <v>9.0671222050984692</v>
+      </c>
+      <c r="L313">
+        <v>-0.95484064519405298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>9.0879999999999992</v>
       </c>
@@ -21018,8 +22626,17 @@
       <c r="F314">
         <v>-0.553378691896796</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J314">
+        <v>11.701485008001301</v>
+      </c>
+      <c r="K314">
+        <v>9.5289932648340798</v>
+      </c>
+      <c r="L314">
+        <v>-0.94887002557516098</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>9.0790000000000006</v>
       </c>
@@ -21038,8 +22655,17 @@
       <c r="F315">
         <v>-0.55256052315235105</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J315">
+        <v>12.010529637336701</v>
+      </c>
+      <c r="K315">
+        <v>9.2367696285247796</v>
+      </c>
+      <c r="L315">
+        <v>-0.95022020675241903</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>9.141</v>
       </c>
@@ -21058,8 +22684,17 @@
       <c r="F316">
         <v>-0.55337287485599496</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J316">
+        <v>12.046221435070001</v>
+      </c>
+      <c r="K316">
+        <v>9.4067242781321205</v>
+      </c>
+      <c r="L316">
+        <v>-0.95406765118241299</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>9.1340000000000003</v>
       </c>
@@ -21078,8 +22713,17 @@
       <c r="F317">
         <v>-0.55477517284452904</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J317">
+        <v>12.010288834571799</v>
+      </c>
+      <c r="K317">
+        <v>9.2262172937393192</v>
+      </c>
+      <c r="L317">
+        <v>-0.95633994415402401</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>9.0690000000000008</v>
       </c>
@@ -21098,8 +22742,17 @@
       <c r="F318">
         <v>-0.55608303286135197</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J318">
+        <v>12.018149435520099</v>
+      </c>
+      <c r="K318">
+        <v>9.0558981180190994</v>
+      </c>
+      <c r="L318">
+        <v>-0.95811818912625302</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>9.0890000000000004</v>
       </c>
@@ -21118,8 +22771,17 @@
       <c r="F319">
         <v>-0.55212819948792402</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J319">
+        <v>11.814343899488399</v>
+      </c>
+      <c r="K319">
+        <v>9.3926547686258903</v>
+      </c>
+      <c r="L319">
+        <v>-0.95866831205785197</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>9.1479999999999997</v>
       </c>
@@ -21138,8 +22800,17 @@
       <c r="F320">
         <v>-0.55755914747714996</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J320">
+        <v>11.819212615489899</v>
+      </c>
+      <c r="K320">
+        <v>9.17560003598531</v>
+      </c>
+      <c r="L320">
+        <v>-0.95911187678575505</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>9.1129999999999995</v>
       </c>
@@ -21158,8 +22829,17 @@
       <c r="F321">
         <v>-0.56050923280417897</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J321">
+        <v>11.966281443834299</v>
+      </c>
+      <c r="K321">
+        <v>9.2748018741607599</v>
+      </c>
+      <c r="L321">
+        <v>-0.95859254524111703</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>9.2119999999999997</v>
       </c>
@@ -21178,8 +22858,17 @@
       <c r="F322">
         <v>-0.55916119925677699</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J322">
+        <v>11.850466877222001</v>
+      </c>
+      <c r="K322">
+        <v>9.2393550554911297</v>
+      </c>
+      <c r="L322">
+        <v>-0.95923351868986995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>9.0779999999999994</v>
       </c>
@@ -21198,8 +22887,17 @@
       <c r="F323">
         <v>-0.55953707173466605</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J323">
+        <v>11.936721980571701</v>
+      </c>
+      <c r="K323">
+        <v>9.3887581507364892</v>
+      </c>
+      <c r="L323">
+        <v>-0.95956941880285695</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>9.0419999999999998</v>
       </c>
@@ -21218,8 +22916,17 @@
       <c r="F324">
         <v>-0.56295480765402295</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J324">
+        <v>11.9080435335636</v>
+      </c>
+      <c r="K324">
+        <v>9.3067326148351004</v>
+      </c>
+      <c r="L324">
+        <v>-0.96062510274350599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>9.2050000000000001</v>
       </c>
@@ -21238,8 +22945,17 @@
       <c r="F325">
         <v>-0.56131325289607004</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J325">
+        <v>11.887385010719299</v>
+      </c>
+      <c r="K325">
+        <v>9.4822016557057704</v>
+      </c>
+      <c r="L325">
+        <v>-0.96020453423261598</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>9.1660000000000004</v>
       </c>
@@ -21258,8 +22974,17 @@
       <c r="F326">
         <v>-0.56371296383440495</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J326">
+        <v>11.9882650971412</v>
+      </c>
+      <c r="K326">
+        <v>9.3942245244979805</v>
+      </c>
+      <c r="L326">
+        <v>-0.96049786917865199</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>9.157</v>
       </c>
@@ -21278,8 +23003,17 @@
       <c r="F327">
         <v>-0.56179587356746197</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J327">
+        <v>11.932582795619901</v>
+      </c>
+      <c r="K327">
+        <v>8.9269706726074194</v>
+      </c>
+      <c r="L327">
+        <v>-0.96125817298889105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>9.1010000000000009</v>
       </c>
@@ -21298,8 +23032,17 @@
       <c r="F328">
         <v>-0.56419649533927396</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J328">
+        <v>12.0111595392227</v>
+      </c>
+      <c r="K328">
+        <v>9.1764275709788006</v>
+      </c>
+      <c r="L328">
+        <v>-0.96163055300712497</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>9.141</v>
       </c>
@@ -21318,8 +23061,17 @@
       <c r="F329">
         <v>-0.56140316650271405</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J329">
+        <v>12.053455054759899</v>
+      </c>
+      <c r="K329">
+        <v>9.2527831157048492</v>
+      </c>
+      <c r="L329">
+        <v>-0.96153233200311605</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>9.2219999999999995</v>
       </c>
@@ -21338,8 +23090,17 @@
       <c r="F330">
         <v>-0.56245092675089803</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J330">
+        <v>11.853680610656699</v>
+      </c>
+      <c r="K330">
+        <v>9.4453312397003106</v>
+      </c>
+      <c r="L330">
+        <v>-0.961908584460616</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>9.1969999999999992</v>
       </c>
@@ -21358,8 +23119,17 @@
       <c r="F331">
         <v>-0.56196917220950104</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J331">
+        <v>11.793118238449001</v>
+      </c>
+      <c r="K331">
+        <v>9.1055048227310103</v>
+      </c>
+      <c r="L331">
+        <v>-0.96112674102187101</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>9.2949999999999999</v>
       </c>
@@ -21378,8 +23148,17 @@
       <c r="F332">
         <v>-0.56253902427852098</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J332">
+        <v>11.919746845960599</v>
+      </c>
+      <c r="K332">
+        <v>9.1261720498402905</v>
+      </c>
+      <c r="L332">
+        <v>-0.96117876656353396</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>9.1859999999999999</v>
       </c>
@@ -21398,8 +23177,17 @@
       <c r="F333">
         <v>-0.56291784532368105</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J333">
+        <v>12.072244167327799</v>
+      </c>
+      <c r="K333">
+        <v>9.3206844170888203</v>
+      </c>
+      <c r="L333">
+        <v>-0.96193782985210396</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>9.2829999999999995</v>
       </c>
@@ -21418,8 +23206,17 @@
       <c r="F334">
         <v>-0.561787715181708</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J334">
+        <v>11.988969027995999</v>
+      </c>
+      <c r="K334">
+        <v>9.3048413197199498</v>
+      </c>
+      <c r="L334">
+        <v>-0.96156406588852406</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>9.2460000000000004</v>
       </c>
@@ -21438,8 +23235,17 @@
       <c r="F335">
         <v>-0.56487086415290799</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J335">
+        <v>11.9944851398468</v>
+      </c>
+      <c r="K335">
+        <v>8.9723757982254</v>
+      </c>
+      <c r="L335">
+        <v>-0.961664639413356</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>9.1639999999999997</v>
       </c>
@@ -21458,8 +23264,17 @@
       <c r="F336">
         <v>-0.56598117947578397</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J336">
+        <v>12.153053760528501</v>
+      </c>
+      <c r="K336">
+        <v>9.1936430931091309</v>
+      </c>
+      <c r="L336">
+        <v>-0.96229551918804601</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>9.2439999999999998</v>
       </c>
@@ -21478,8 +23293,17 @@
       <c r="F337">
         <v>-0.56392740271985498</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J337">
+        <v>11.9006441235542</v>
+      </c>
+      <c r="K337">
+        <v>9.29359412988026</v>
+      </c>
+      <c r="L337">
+        <v>-0.96218884736299504</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>9.2739999999999991</v>
       </c>
@@ -21498,8 +23322,17 @@
       <c r="F338">
         <v>-0.5715524982661</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J338">
+        <v>12.0361784100532</v>
+      </c>
+      <c r="K338">
+        <v>9.37095658779144</v>
+      </c>
+      <c r="L338">
+        <v>-0.96204063110053495</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>9.2850000000000001</v>
       </c>
@@ -21518,8 +23351,17 @@
       <c r="F339">
         <v>-0.56632335111498799</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J339">
+        <v>11.9388893842697</v>
+      </c>
+      <c r="K339">
+        <v>9.4700700362523396</v>
+      </c>
+      <c r="L339">
+        <v>-0.96146925352513701</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>9.2629999999999999</v>
       </c>
@@ -21538,8 +23380,17 @@
       <c r="F340">
         <v>-0.56733461655676298</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J340">
+        <v>12.057303428649901</v>
+      </c>
+      <c r="K340">
+        <v>9.3123439391453999</v>
+      </c>
+      <c r="L340">
+        <v>-0.96153620257973604</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>9.2910000000000004</v>
       </c>
@@ -21558,8 +23409,17 @@
       <c r="F341">
         <v>-0.56956493854522705</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J341">
+        <v>11.9511889219284</v>
+      </c>
+      <c r="K341">
+        <v>9.41659057935078</v>
+      </c>
+      <c r="L341">
+        <v>-0.961219683289527</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>9.2729999999999997</v>
       </c>
@@ -21578,8 +23438,17 @@
       <c r="F342">
         <v>-0.57017489708960001</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J342">
+        <v>12.0990047752857</v>
+      </c>
+      <c r="K342">
+        <v>9.3324505488077794</v>
+      </c>
+      <c r="L342">
+        <v>-0.96155910007655598</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>9.4600000000000009</v>
       </c>
@@ -21598,8 +23467,17 @@
       <c r="F343">
         <v>-0.57695306278765202</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J343">
+        <v>12.002898693084701</v>
+      </c>
+      <c r="K343">
+        <v>9.24296868642171</v>
+      </c>
+      <c r="L343">
+        <v>-0.96184183657169298</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>9.3719999999999999</v>
       </c>
@@ -21618,8 +23496,17 @@
       <c r="F344">
         <v>-0.57032691873609997</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J344">
+        <v>11.943248480558299</v>
+      </c>
+      <c r="K344">
+        <v>9.23788414796193</v>
+      </c>
+      <c r="L344">
+        <v>-0.96190182305872396</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>9.3529999999999998</v>
       </c>
@@ -21638,8 +23525,17 @@
       <c r="F345">
         <v>-0.57035816460847799</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J345">
+        <v>12.0430124104022</v>
+      </c>
+      <c r="K345">
+        <v>9.0585646867752008</v>
+      </c>
+      <c r="L345">
+        <v>-0.96207073144614697</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>9.4209999999999994</v>
       </c>
@@ -21658,8 +23554,17 @@
       <c r="F346">
         <v>-0.57467917166650295</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J346">
+        <v>12.050951719284001</v>
+      </c>
+      <c r="K346">
+        <v>9.1200898806254003</v>
+      </c>
+      <c r="L346">
+        <v>-0.962502306327223</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>9.3949999999999996</v>
       </c>
@@ -21678,8 +23583,17 @@
       <c r="F347">
         <v>-0.57182203233242002</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J347">
+        <v>11.9944583773612</v>
+      </c>
+      <c r="K347">
+        <v>9.1693033774693795</v>
+      </c>
+      <c r="L347">
+        <v>-0.96251367591321402</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>9.4179999999999993</v>
       </c>
@@ -21698,8 +23612,17 @@
       <c r="F348">
         <v>-0.57320467941462905</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J348">
+        <v>11.9603064358234</v>
+      </c>
+      <c r="K348">
+        <v>9.1833358685175508</v>
+      </c>
+      <c r="L348">
+        <v>-0.96351393871009305</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>9.3650000000000002</v>
       </c>
@@ -21718,8 +23641,17 @@
       <c r="F349">
         <v>-0.57275236584246103</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J349">
+        <v>11.992848694324399</v>
+      </c>
+      <c r="K349">
+        <v>9.3039563735326105</v>
+      </c>
+      <c r="L349">
+        <v>-0.96436696313321502</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>9.3840000000000003</v>
       </c>
@@ -21738,8 +23670,17 @@
       <c r="F350">
         <v>-0.57308063842356205</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J350">
+        <v>12.0019058287143</v>
+      </c>
+      <c r="K350">
+        <v>9.2509401480356797</v>
+      </c>
+      <c r="L350">
+        <v>-0.96387267485260897</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>9.3870000000000005</v>
       </c>
@@ -21758,8 +23699,17 @@
       <c r="F351">
         <v>-0.57682833261787803</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J351">
+        <v>12.080038249492601</v>
+      </c>
+      <c r="K351">
+        <v>9.46117692788442</v>
+      </c>
+      <c r="L351">
+        <v>-0.96405059844255403</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>9.3879999999999999</v>
       </c>
@@ -21778,8 +23728,17 @@
       <c r="F352">
         <v>-0.57190543226897705</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J352">
+        <v>8.5084777474403293</v>
+      </c>
+      <c r="K352">
+        <v>8.5689506928125994</v>
+      </c>
+      <c r="L352">
+        <v>-0.57985901925712802</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>9.3949999999999996</v>
       </c>
@@ -21798,8 +23757,17 @@
       <c r="F353">
         <v>-0.57846276089548998</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J353">
+        <v>11.4695385098457</v>
+      </c>
+      <c r="K353">
+        <v>9.3615568081537806</v>
+      </c>
+      <c r="L353">
+        <v>-0.33259841799736001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>9.4149999999999991</v>
       </c>
@@ -21818,8 +23786,17 @@
       <c r="F354">
         <v>-0.57467533834278495</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J354">
+        <v>11.5867539048194</v>
+      </c>
+      <c r="K354">
+        <v>9.1747538169225002</v>
+      </c>
+      <c r="L354">
+        <v>-0.28610543813556399</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>9.4309999999999992</v>
       </c>
@@ -21838,8 +23815,17 @@
       <c r="F355">
         <v>-0.57613950222730603</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J355">
+        <v>11.7351560294628</v>
+      </c>
+      <c r="K355">
+        <v>9.2464561939239491</v>
+      </c>
+      <c r="L355">
+        <v>-0.31365883070975498</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9.3670000000000009</v>
       </c>
@@ -21858,8 +23844,17 @@
       <c r="F356">
         <v>-0.57800597138702803</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J356">
+        <v>11.692968279123299</v>
+      </c>
+      <c r="K356">
+        <v>9.4228317101796399</v>
+      </c>
+      <c r="L356">
+        <v>-0.32276901137083702</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>9.4440000000000008</v>
       </c>
@@ -21878,8 +23873,17 @@
       <c r="F357">
         <v>-0.57732047885656301</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J357">
+        <v>11.744788110256099</v>
+      </c>
+      <c r="K357">
+        <v>9.26643585364023</v>
+      </c>
+      <c r="L357">
+        <v>-0.33273031935095698</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>9.3870000000000005</v>
       </c>
@@ -21898,8 +23902,17 @@
       <c r="F358">
         <v>-0.57723733969032698</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J358">
+        <v>11.881012886762599</v>
+      </c>
+      <c r="K358">
+        <v>9.2184039910634308</v>
+      </c>
+      <c r="L358">
+        <v>-0.34781874157488302</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>9.3989999999999991</v>
       </c>
@@ -21918,8 +23931,17 @@
       <c r="F359">
         <v>-0.574207218363881</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J359">
+        <v>11.7457451224327</v>
+      </c>
+      <c r="K359">
+        <v>9.0700662533442102</v>
+      </c>
+      <c r="L359">
+        <v>-0.34731609467417002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>9.3960000000000008</v>
       </c>
@@ -21938,8 +23960,17 @@
       <c r="F360">
         <v>-0.57677765190601304</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J360">
+        <v>11.8867830634117</v>
+      </c>
+      <c r="K360">
+        <v>9.3850692907969098</v>
+      </c>
+      <c r="L360">
+        <v>-0.35514983348548401</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>9.423</v>
       </c>
@@ -21958,8 +23989,17 @@
       <c r="F361">
         <v>-0.57344166003167596</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J361">
+        <v>11.813861489295901</v>
+      </c>
+      <c r="K361">
+        <v>9.4521941184997509</v>
+      </c>
+      <c r="L361">
+        <v>-0.36043491400778199</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>9.4559999999999995</v>
       </c>
@@ -21978,8 +24018,17 @@
       <c r="F362">
         <v>-0.57997805811464698</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J362">
+        <v>11.8599055409431</v>
+      </c>
+      <c r="K362">
+        <v>9.4980931997299098</v>
+      </c>
+      <c r="L362">
+        <v>-0.35806320980191197</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>9.4710000000000001</v>
       </c>
@@ -21998,8 +24047,17 @@
       <c r="F363">
         <v>-0.57675114832818497</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J363">
+        <v>11.824622094631099</v>
+      </c>
+      <c r="K363">
+        <v>9.2011976480483995</v>
+      </c>
+      <c r="L363">
+        <v>-0.35401882231235499</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>9.3350000000000009</v>
       </c>
@@ -22018,8 +24076,17 @@
       <c r="F364">
         <v>-0.58139256574213505</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J364">
+        <v>11.864117503166099</v>
+      </c>
+      <c r="K364">
+        <v>9.24692959785461</v>
+      </c>
+      <c r="L364">
+        <v>-0.34921355824917499</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>9.4619999999999997</v>
       </c>
@@ -22038,8 +24105,17 @@
       <c r="F365">
         <v>-0.57760920003056504</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J365">
+        <v>11.936412215232799</v>
+      </c>
+      <c r="K365">
+        <v>9.4956847031911202</v>
+      </c>
+      <c r="L365">
+        <v>-0.34850382339209302</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>9.4160000000000004</v>
       </c>
@@ -22058,8 +24134,17 @@
       <c r="F366">
         <v>-0.58258912712335498</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J366">
+        <v>11.829218387603699</v>
+      </c>
+      <c r="K366">
+        <v>9.5576056321461902</v>
+      </c>
+      <c r="L366">
+        <v>-0.34566192142665297</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>9.4190000000000005</v>
       </c>
@@ -22078,8 +24163,17 @@
       <c r="F367">
         <v>-0.577350137755274</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J367">
+        <v>11.942276120185801</v>
+      </c>
+      <c r="K367">
+        <v>9.4580923398335699</v>
+      </c>
+      <c r="L367">
+        <v>-0.35926184337586098</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>9.6649999999999991</v>
       </c>
@@ -22098,8 +24192,17 @@
       <c r="F368">
         <v>-0.57893762178718999</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J368">
+        <v>11.9373939633369</v>
+      </c>
+      <c r="K368">
+        <v>9.4624482949574702</v>
+      </c>
+      <c r="L368">
+        <v>-0.35286901611834698</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>9.5530000000000008</v>
       </c>
@@ -22118,8 +24221,17 @@
       <c r="F369">
         <v>-0.58090922422707003</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J369">
+        <v>11.9623717665672</v>
+      </c>
+      <c r="K369">
+        <v>9.3965377012888496</v>
+      </c>
+      <c r="L369">
+        <v>-0.35150425508618299</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>9.5429999999999993</v>
       </c>
@@ -22138,8 +24250,17 @@
       <c r="F370">
         <v>-0.57894567213952497</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J370">
+        <v>11.896984666585899</v>
+      </c>
+      <c r="K370">
+        <v>9.1672918717066398</v>
+      </c>
+      <c r="L370">
+        <v>-0.3569066375494</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>9.5292028486728597</v>
       </c>
@@ -22158,8 +24279,17 @@
       <c r="F371">
         <v>-0.57882288284599703</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J371">
+        <v>11.9663800001144</v>
+      </c>
+      <c r="K371">
+        <v>9.7680529832839902</v>
+      </c>
+      <c r="L371">
+        <v>-0.35200367867946603</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>9.57215967774391</v>
       </c>
@@ -22178,8 +24308,17 @@
       <c r="F372">
         <v>-0.58145878463983502</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J372">
+        <v>11.8249208033084</v>
+      </c>
+      <c r="K372">
+        <v>9.3534403244654296</v>
+      </c>
+      <c r="L372">
+        <v>-0.35055666975677002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>9.6300643980502993</v>
       </c>
@@ -22198,8 +24337,17 @@
       <c r="F373">
         <v>-0.58533528447151095</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J373">
+        <v>11.910927534103299</v>
+      </c>
+      <c r="K373">
+        <v>9.5881544033686303</v>
+      </c>
+      <c r="L373">
+        <v>-0.35212454199790899</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>9.5192711651325208</v>
       </c>
@@ -22218,8 +24366,17 @@
       <c r="F374">
         <v>-0.58427314274012998</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J374">
+        <v>12.0303738117218</v>
+      </c>
+      <c r="K374">
+        <v>9.3227808157602894</v>
+      </c>
+      <c r="L374">
+        <v>-0.35666209738701499</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>9.5340739488601596</v>
       </c>
@@ -22238,8 +24395,17 @@
       <c r="F375">
         <v>-0.58301788009703104</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J375">
+        <v>11.9936463236808</v>
+      </c>
+      <c r="K375">
+        <v>9.3956901073455796</v>
+      </c>
+      <c r="L375">
+        <v>-0.36379527300596198</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>9.5256678164005208</v>
       </c>
@@ -22258,8 +24424,17 @@
       <c r="F376">
         <v>-0.58877100795507398</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J376">
+        <v>12.038260966539299</v>
+      </c>
+      <c r="K376">
+        <v>9.2276377280553099</v>
+      </c>
+      <c r="L376">
+        <v>-0.36077886167913598</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>9.5694445371627808</v>
       </c>
@@ -22278,8 +24453,17 @@
       <c r="F377">
         <v>-0.588294878602027</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J377">
+        <v>12.0426204502582</v>
+      </c>
+      <c r="K377">
+        <v>9.2645783185958805</v>
+      </c>
+      <c r="L377">
+        <v>-0.34777864441275502</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>9.5120014250278402</v>
       </c>
@@ -22298,8 +24482,17 @@
       <c r="F378">
         <v>-0.58491904847323895</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J378">
+        <v>12.0156651139259</v>
+      </c>
+      <c r="K378">
+        <v>9.2344055334726907</v>
+      </c>
+      <c r="L378">
+        <v>-0.353854211978614</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>9.5555566251277906</v>
       </c>
@@ -22318,8 +24511,17 @@
       <c r="F379">
         <v>-0.58203527331352201</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J379">
+        <v>12.0585656166076</v>
+      </c>
+      <c r="K379">
+        <v>9.1669288158416702</v>
+      </c>
+      <c r="L379">
+        <v>-0.34905474260449398</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>9.5894627869129092</v>
       </c>
@@ -22338,8 +24540,17 @@
       <c r="F380">
         <v>-0.58708708919584696</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J380">
+        <v>12.1151378154754</v>
+      </c>
+      <c r="K380">
+        <v>9.2305028279622299</v>
+      </c>
+      <c r="L380">
+        <v>-0.35037263948470299</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>9.6878307461738498</v>
       </c>
@@ -22358,8 +24569,17 @@
       <c r="F381">
         <v>-0.58274399302899804</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J381">
+        <v>11.9953912198543</v>
+      </c>
+      <c r="K381">
+        <v>9.2520442008972097</v>
+      </c>
+      <c r="L381">
+        <v>-0.35288872662931597</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>9.6819703280925697</v>
       </c>
@@ -22378,8 +24598,17 @@
       <c r="F382">
         <v>-0.58319211937487103</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J382">
+        <v>12.1016785800457</v>
+      </c>
+      <c r="K382">
+        <v>9.2219278017679809</v>
+      </c>
+      <c r="L382">
+        <v>-0.34251391608268</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>9.6775901019573194</v>
       </c>
@@ -22398,8 +24627,17 @@
       <c r="F383">
         <v>-0.57879793643951405</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J383">
+        <v>12.1039902567863</v>
+      </c>
+      <c r="K383">
+        <v>9.2143485705057699</v>
+      </c>
+      <c r="L383">
+        <v>-0.34566918946802599</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>9.6284435093402791</v>
       </c>
@@ -22418,8 +24656,17 @@
       <c r="F384">
         <v>-0.58177452906966198</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J384">
+        <v>12.144374281167901</v>
+      </c>
+      <c r="K384">
+        <v>9.6606573502222695</v>
+      </c>
+      <c r="L384">
+        <v>-0.35423005558550302</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>9.697174847126</v>
       </c>
@@ -22438,8 +24685,17 @@
       <c r="F385">
         <v>-0.58640812337398496</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J385">
+        <v>12.1568936407566</v>
+      </c>
+      <c r="K385">
+        <v>9.39485646088918</v>
+      </c>
+      <c r="L385">
+        <v>-0.35538263432681499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>9.6849519312381709</v>
       </c>
@@ -22458,8 +24714,17 @@
       <c r="F386">
         <v>-0.58488943055272102</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J386">
+        <v>12.2820802927017</v>
+      </c>
+      <c r="K386">
+        <v>9.5438868522644</v>
+      </c>
+      <c r="L386">
+        <v>-0.35812587663531298</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>9.6775209605693799</v>
       </c>
@@ -22478,8 +24743,17 @@
       <c r="F387">
         <v>-0.58488042466342405</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J387">
+        <v>12.0687760114669</v>
+      </c>
+      <c r="K387">
+        <v>9.4276465415954593</v>
+      </c>
+      <c r="L387">
+        <v>-0.34631665330380201</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>9.6924335360527003</v>
       </c>
@@ -22498,8 +24772,17 @@
       <c r="F388">
         <v>-0.585190430283546</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J388">
+        <v>12.315610259771301</v>
+      </c>
+      <c r="K388">
+        <v>9.5349266131718906</v>
+      </c>
+      <c r="L388">
+        <v>-0.35309408977627699</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>9.6964306831359792</v>
       </c>
@@ -22518,8 +24801,17 @@
       <c r="F389">
         <v>-0.58707244694232896</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J389">
+        <v>12.1520624160766</v>
+      </c>
+      <c r="K389">
+        <v>9.2979031244913699</v>
+      </c>
+      <c r="L389">
+        <v>-0.35404269397258697</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>9.7014272212982107</v>
       </c>
@@ -22538,8 +24830,17 @@
       <c r="F390">
         <v>-0.58022530935704697</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J390">
+        <v>12.213364273309701</v>
+      </c>
+      <c r="K390">
+        <v>9.2405506610870294</v>
+      </c>
+      <c r="L390">
+        <v>-0.349766450002789</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>9.6615223288536001</v>
       </c>
@@ -22558,8 +24859,17 @@
       <c r="F391">
         <v>-0.58259314671158702</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J391">
+        <v>12.1710130572319</v>
+      </c>
+      <c r="K391">
+        <v>9.4850850423176993</v>
+      </c>
+      <c r="L391">
+        <v>-0.34680554829537802</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>9.6284461021423304</v>
       </c>
@@ -22578,8 +24888,17 @@
       <c r="F392">
         <v>-0.58372293412685305</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J392">
+        <v>12.2093544006347</v>
+      </c>
+      <c r="K392">
+        <v>9.5141434828440303</v>
+      </c>
+      <c r="L392">
+        <v>-0.34741815086454098</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>9.6667453646659798</v>
       </c>
@@ -22598,8 +24917,17 @@
       <c r="F393">
         <v>-0.58548563532531195</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J393">
+        <v>12.220186799764599</v>
+      </c>
+      <c r="K393">
+        <v>9.2907932678858405</v>
+      </c>
+      <c r="L393">
+        <v>-0.35642823670059398</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>9.6410584449767995</v>
       </c>
@@ -22618,8 +24946,17 @@
       <c r="F394">
         <v>-0.58620017208158903</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J394">
+        <v>12.243526399135501</v>
+      </c>
+      <c r="K394">
+        <v>9.3400308767954492</v>
+      </c>
+      <c r="L394">
+        <v>-0.35799935646355102</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>9.7063663601875305</v>
       </c>
@@ -22638,8 +24975,17 @@
       <c r="F395">
         <v>-0.58216060325503305</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J395">
+        <v>12.080579519271801</v>
+      </c>
+      <c r="K395">
+        <v>9.3495410521825093</v>
+      </c>
+      <c r="L395">
+        <v>-0.341478764079511</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>9.7981066405773092</v>
       </c>
@@ -22658,8 +25004,17 @@
       <c r="F396">
         <v>-0.58409004472196102</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J396">
+        <v>12.157548785209601</v>
+      </c>
+      <c r="K396">
+        <v>9.2061673641204802</v>
+      </c>
+      <c r="L396">
+        <v>-0.34879405051469797</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>9.7096359133720398</v>
       </c>
@@ -22678,8 +25033,17 @@
       <c r="F397">
         <v>-0.58840340562164695</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J397">
+        <v>12.228494465351099</v>
+      </c>
+      <c r="K397">
+        <v>9.3657036066055301</v>
+      </c>
+      <c r="L397">
+        <v>-0.35336177982389899</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>9.8065983057022095</v>
       </c>
@@ -22698,8 +25062,17 @@
       <c r="F398">
         <v>-0.58111057989299297</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J398">
+        <v>12.257333010435101</v>
+      </c>
+      <c r="K398">
+        <v>9.5645886421203592</v>
+      </c>
+      <c r="L398">
+        <v>-0.34814798459410601</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>9.7783667743206006</v>
       </c>
@@ -22718,8 +25091,17 @@
       <c r="F399">
         <v>-0.58212370239198197</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J399">
+        <v>12.279687672853401</v>
+      </c>
+      <c r="K399">
+        <v>9.25673269430796</v>
+      </c>
+      <c r="L399">
+        <v>-0.34641049616038799</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>9.7937201857566798</v>
       </c>
@@ -22738,8 +25120,17 @@
       <c r="F400">
         <v>-0.58765046298503798</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J400">
+        <v>12.3056975603103</v>
+      </c>
+      <c r="K400">
+        <v>9.1532276233037297</v>
+      </c>
+      <c r="L400">
+        <v>-0.36017580050975001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>9.7242001295089704</v>
       </c>
@@ -22757,6 +25148,15 @@
       </c>
       <c r="F401">
         <v>-0.58876267075538602</v>
+      </c>
+      <c r="J401">
+        <v>12.376990050077399</v>
+      </c>
+      <c r="K401">
+        <v>9.2814170837402301</v>
+      </c>
+      <c r="L401">
+        <v>-0.36153503321111202</v>
       </c>
     </row>
   </sheetData>
